--- a/src/main/resources/FeatureFiles/TestSuite1.xlsx
+++ b/src/main/resources/FeatureFiles/TestSuite1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/Mobile-Web-Automation/src/main/resources/FeatureFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/Mobile-Web-Browser-Automation/src/main/resources/FeatureFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46446275-8365-F547-A592-3E6393C3AFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5844F6-A37B-CE42-8E50-B415629A2BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -41,19 +41,10 @@
     <t>enterTextInTextField</t>
   </si>
   <si>
-    <t>selectValueFromDropDown</t>
-  </si>
-  <si>
-    <t>Algoworks</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
     <t>textBoxMustHaveValue</t>
-  </si>
-  <si>
-    <t>Sumit</t>
   </si>
   <si>
     <t>Tags</t>
@@ -74,79 +65,31 @@
     <t>beforeEach</t>
   </si>
   <si>
-    <t>{BaseURL}+/contact/</t>
-  </si>
-  <si>
-    <t>ContactPage_BrandLogo_ImageLink</t>
-  </si>
-  <si>
-    <t>triggerLazyLoadAndClick</t>
-  </si>
-  <si>
-    <t>ContactPage_Button_AcceptCookies</t>
-  </si>
-  <si>
     <t>waitForPageToRender</t>
   </si>
   <si>
-    <t>TC001 : Verify contact form is successfully submitted when all fields are filled with valid information</t>
+    <t>afterEach</t>
   </si>
   <si>
-    <t>ContactPage_TextBox_Email</t>
+    <t>{BaseURL}</t>
   </si>
   <si>
-    <t>sumit.tomar@algoworks.com</t>
+    <t>TC001 : Verify Guru 99 test URL</t>
   </si>
   <si>
-    <t>ContactPage_TextBox_FirstName</t>
+    <t>gurcharan.jadaun@outlook.com</t>
   </si>
   <si>
-    <t>ContactPage_TextBox_LastName</t>
+    <t>Guru99_TestBank_Header</t>
   </si>
   <si>
-    <t>To-mar</t>
+    <t>Guru99_TestBank_TextBox_Email</t>
   </si>
   <si>
-    <t>ContactPage_TextBox_PhoneNumber</t>
+    <t>Guru99_TestBank_Button_Submit</t>
   </si>
   <si>
-    <t>9911223344</t>
-  </si>
-  <si>
-    <t>ContactPage_DropDown_Country</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>ContactPage_DropDown_JobTitle</t>
-  </si>
-  <si>
-    <t>Analyst / Press</t>
-  </si>
-  <si>
-    <t>ContactPage_DropDown_ReasonForInquiry</t>
-  </si>
-  <si>
-    <t>Support Request</t>
-  </si>
-  <si>
-    <t>ContactPage_TextBox_CompanyName</t>
-  </si>
-  <si>
-    <t>ContactPage_TextBox_CommentBox</t>
-  </si>
-  <si>
-    <t>Test case 2</t>
-  </si>
-  <si>
-    <t>ContactPage_Button_ContactUs</t>
-  </si>
-  <si>
-    <t>ContactPage_CheckMark_SuccessfullConfirmation</t>
-  </si>
-  <si>
-    <t>afterEach</t>
+    <t>Guru99_TestBank_AccessDetailsToDemoSite</t>
   </si>
 </sst>
 </file>
@@ -199,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -207,6 +150,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -512,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E665"/>
+  <dimension ref="A1:E653"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -541,26 +485,26 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E3"/>
     </row>
@@ -570,10 +514,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5"/>
@@ -583,212 +527,122 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>19</v>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>40</v>
+      <c r="C12" t="s">
+        <v>22</v>
       </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C23"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C24"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C25"/>
-      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C27"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28"/>
       <c r="C28"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29"/>
       <c r="C29"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30"/>
-      <c r="C30"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C31"/>
@@ -802,15 +656,13 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34"/>
-      <c r="D34" s="4"/>
+      <c r="C34"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C35"/>
-      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C36"/>
-      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C37"/>
@@ -821,17 +673,22 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C39"/>
-      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C40"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41"/>
       <c r="C41"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C42"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C43"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44"/>
@@ -846,9 +703,12 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C47"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48"/>
       <c r="C48"/>
+      <c r="D48" s="3"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C49"/>
@@ -861,96 +721,95 @@
       <c r="C51"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52"/>
       <c r="C52"/>
-      <c r="D52" s="3"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53"/>
       <c r="C53"/>
-      <c r="D53" s="3"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54"/>
       <c r="C54"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C55"/>
-      <c r="D55" s="3"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56"/>
-      <c r="C56"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C57"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58"/>
       <c r="C58"/>
+      <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C59"/>
-      <c r="D59" s="3"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60"/>
       <c r="C60"/>
-      <c r="D60" s="3"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C61"/>
+      <c r="D61"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62"/>
       <c r="C62"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63"/>
       <c r="C63"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64"/>
       <c r="C64"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65"/>
       <c r="C65"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66"/>
       <c r="C66"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C67"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68"/>
-      <c r="D68" s="4"/>
+      <c r="C68"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69"/>
       <c r="C69"/>
-      <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C70"/>
-      <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C71"/>
+      <c r="D71" s="3"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72"/>
       <c r="C72"/>
+      <c r="D72" s="3"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D73"/>
+      <c r="C73"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C74"/>
+      <c r="D74"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75"/>
       <c r="C75"/>
+      <c r="D75"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C76"/>
+      <c r="D76" s="3"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77"/>
@@ -958,9 +817,12 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C78"/>
+      <c r="D78" s="3"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79"/>
       <c r="C79"/>
+      <c r="D79" s="3"/>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C80"/>
@@ -973,91 +835,86 @@
       <c r="C82"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83"/>
       <c r="C83"/>
-      <c r="D83" s="3"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B84"/>
       <c r="C84"/>
-      <c r="D84" s="3"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85"/>
       <c r="C85"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C86"/>
-      <c r="D86"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
+      <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C88"/>
-      <c r="D88" s="3"/>
+      <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B89"/>
       <c r="C89"/>
+      <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C90"/>
-      <c r="D90" s="3"/>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91"/>
       <c r="C91"/>
-      <c r="D91" s="3"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C92"/>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B93"/>
       <c r="C93"/>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94"/>
       <c r="C94"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B95"/>
       <c r="C95"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96"/>
       <c r="C96"/>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B97"/>
       <c r="C97"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C98"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B99"/>
-      <c r="D99" s="4"/>
+      <c r="C99"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100"/>
       <c r="C100"/>
-      <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C101"/>
-      <c r="D101" s="4"/>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C102"/>
+      <c r="D102" s="3"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B103"/>
       <c r="C103"/>
+      <c r="D103" s="3"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C104"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C105"/>
+      <c r="D105" s="3"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106"/>
@@ -1072,9 +929,12 @@
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C109"/>
+      <c r="D109" s="3"/>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B110"/>
       <c r="C110"/>
+      <c r="D110" s="3"/>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C111"/>
@@ -1087,96 +947,95 @@
       <c r="C113"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B114"/>
       <c r="C114"/>
-      <c r="D114" s="3"/>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B115"/>
       <c r="C115"/>
-      <c r="D115" s="3"/>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116"/>
       <c r="C116"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C117"/>
-      <c r="D117" s="3"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118"/>
-      <c r="C118"/>
+      <c r="D118" s="4"/>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C119"/>
+      <c r="D119" s="4"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B120"/>
       <c r="C120"/>
+      <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C121"/>
-      <c r="D121" s="3"/>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122"/>
       <c r="C122"/>
-      <c r="D122" s="3"/>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C123"/>
+      <c r="D123"/>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B124"/>
       <c r="C124"/>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B125"/>
       <c r="C125"/>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B126"/>
       <c r="C126"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B127"/>
       <c r="C127"/>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B128"/>
       <c r="C128"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C129"/>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B130"/>
-      <c r="D130" s="4"/>
+      <c r="C130"/>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B131"/>
       <c r="C131"/>
-      <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C132"/>
-      <c r="D132" s="4"/>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C133"/>
+      <c r="D133" s="3"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134"/>
       <c r="C134"/>
+      <c r="D134" s="3"/>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D135"/>
+      <c r="C135"/>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C136"/>
+      <c r="D136"/>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B137"/>
       <c r="C137"/>
+      <c r="D137"/>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C138"/>
+      <c r="D138" s="3"/>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B139"/>
@@ -1184,9 +1043,12 @@
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C140"/>
+      <c r="D140" s="3"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B141"/>
       <c r="C141"/>
+      <c r="D141" s="3"/>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C142"/>
@@ -1199,84 +1061,79 @@
       <c r="C144"/>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B145"/>
       <c r="C145"/>
-      <c r="D145" s="3"/>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B146"/>
       <c r="C146"/>
-      <c r="D146" s="3"/>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B147"/>
       <c r="C147"/>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C148"/>
-      <c r="D148"/>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B149"/>
-      <c r="C149"/>
-      <c r="D149"/>
+      <c r="D149" s="4"/>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C150"/>
-      <c r="D150" s="3"/>
+      <c r="D150" s="4"/>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B151"/>
       <c r="C151"/>
+      <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C152"/>
-      <c r="D152" s="3"/>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B153"/>
       <c r="C153"/>
-      <c r="D153" s="3"/>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B154"/>
       <c r="C154"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B155"/>
       <c r="C155"/>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C156"/>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B157"/>
       <c r="C157"/>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B158"/>
       <c r="C158"/>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B159"/>
       <c r="C159"/>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B160"/>
       <c r="C160"/>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B161"/>
-      <c r="D161" s="4"/>
+      <c r="C161"/>
+      <c r="D161" s="3"/>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B162"/>
       <c r="C162"/>
-      <c r="D162" s="4"/>
+      <c r="D162" s="3"/>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C163"/>
-      <c r="D163" s="4"/>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B164"/>
       <c r="C164"/>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B165"/>
       <c r="C165"/>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.2">
@@ -1287,6 +1144,7 @@
       <c r="C167"/>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B168"/>
       <c r="C168"/>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
@@ -1294,174 +1152,172 @@
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170"/>
-      <c r="C170"/>
+      <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C171"/>
+      <c r="D171" s="4"/>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B172"/>
       <c r="C172"/>
+      <c r="D172" s="4"/>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C173"/>
-      <c r="D173" s="3"/>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B174"/>
       <c r="C174"/>
-      <c r="D174" s="3"/>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C175"/>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B176"/>
       <c r="C176"/>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B177"/>
       <c r="C177"/>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B178"/>
       <c r="C178"/>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B179"/>
       <c r="C179"/>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B180"/>
       <c r="C180"/>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C181"/>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B182"/>
-      <c r="D182" s="4"/>
+      <c r="C182"/>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B183"/>
       <c r="C183"/>
-      <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C184"/>
-      <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C185"/>
+      <c r="D185" s="3"/>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B186"/>
       <c r="C186"/>
+      <c r="D186" s="3"/>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C187"/>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B188"/>
       <c r="C188"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B189"/>
       <c r="C189"/>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B190"/>
       <c r="C190"/>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B191"/>
       <c r="C191"/>
+      <c r="D191" s="3"/>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B192"/>
       <c r="C192"/>
+      <c r="D192" s="3"/>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C193"/>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B194"/>
       <c r="C194"/>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B195"/>
       <c r="C195"/>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B196"/>
       <c r="C196"/>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C197"/>
-      <c r="D197" s="3"/>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198"/>
       <c r="C198"/>
-      <c r="D198" s="3"/>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C199"/>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B200"/>
-      <c r="C200"/>
+      <c r="D200" s="4"/>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C201"/>
+      <c r="D201" s="4"/>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B202"/>
       <c r="C202"/>
+      <c r="D202" s="4"/>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C203"/>
-      <c r="D203" s="3"/>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B204"/>
       <c r="C204"/>
-      <c r="D204" s="3"/>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C205"/>
+      <c r="D205"/>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B206"/>
       <c r="C206"/>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B207"/>
       <c r="C207"/>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B208"/>
       <c r="C208"/>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B209"/>
       <c r="C209"/>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B210"/>
       <c r="C210"/>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C211"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B212"/>
-      <c r="D212" s="4"/>
+      <c r="C212"/>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B213"/>
       <c r="C213"/>
-      <c r="D213" s="4"/>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C214"/>
-      <c r="D214" s="4"/>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C215"/>
+      <c r="D215" s="3"/>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B216"/>
       <c r="C216"/>
+      <c r="D216" s="3"/>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D217"/>
+      <c r="C217"/>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C218"/>
@@ -1472,15 +1328,18 @@
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C220"/>
+      <c r="D220" s="3"/>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B221"/>
       <c r="C221"/>
+      <c r="D221" s="3"/>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C222"/>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B223"/>
       <c r="C223"/>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.2">
@@ -1494,75 +1353,72 @@
       <c r="C226"/>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B227"/>
       <c r="C227"/>
-      <c r="D227" s="3"/>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B228"/>
       <c r="C228"/>
-      <c r="D228" s="3"/>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C229"/>
+      <c r="B229"/>
+      <c r="D229" s="4"/>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C230"/>
+      <c r="D230" s="4"/>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B231"/>
       <c r="C231"/>
+      <c r="D231" s="4"/>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C232"/>
-      <c r="D232" s="3"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233"/>
       <c r="C233"/>
-      <c r="D233" s="3"/>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C234"/>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B235"/>
       <c r="C235"/>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B236"/>
       <c r="C236"/>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B237"/>
       <c r="C237"/>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B238"/>
       <c r="C238"/>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B239"/>
       <c r="C239"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C240"/>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B241"/>
-      <c r="D241" s="4"/>
+      <c r="C241"/>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B242"/>
       <c r="C242"/>
-      <c r="D242" s="4"/>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C243"/>
-      <c r="D243" s="4"/>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C244"/>
+      <c r="D244" s="3"/>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B245"/>
       <c r="C245"/>
+      <c r="D245" s="3"/>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C246"/>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C247"/>
@@ -1573,15 +1429,18 @@
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C249"/>
+      <c r="D249" s="3"/>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B250"/>
       <c r="C250"/>
+      <c r="D250" s="3"/>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C251"/>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B252"/>
       <c r="C252"/>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.2">
@@ -1595,78 +1454,75 @@
       <c r="C255"/>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B256"/>
       <c r="C256"/>
-      <c r="D256" s="3"/>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B257"/>
       <c r="C257"/>
-      <c r="D257" s="3"/>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C258"/>
+      <c r="B258"/>
+      <c r="D258" s="4"/>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C259"/>
+      <c r="D259" s="4"/>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B260"/>
       <c r="C260"/>
+      <c r="D260" s="4"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C261"/>
-      <c r="D261" s="3"/>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B262"/>
       <c r="C262"/>
-      <c r="D262" s="3"/>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C263"/>
+      <c r="D263"/>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B264"/>
       <c r="C264"/>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B265"/>
       <c r="C265"/>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B266"/>
       <c r="C266"/>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B267"/>
       <c r="C267"/>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B268"/>
       <c r="C268"/>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C269"/>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B270"/>
-      <c r="D270" s="4"/>
+      <c r="C270"/>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B271"/>
       <c r="C271"/>
-      <c r="D271" s="4"/>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C272"/>
-      <c r="D272" s="4"/>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C273"/>
+      <c r="D273" s="3"/>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B274"/>
       <c r="C274"/>
+      <c r="D274" s="3"/>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D275"/>
+      <c r="C275"/>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C276"/>
@@ -1686,6 +1542,7 @@
       <c r="C280"/>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B281"/>
       <c r="C281"/>
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.2">
@@ -1699,23 +1556,23 @@
       <c r="C284"/>
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B285"/>
       <c r="C285"/>
-      <c r="D285" s="3"/>
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B286"/>
       <c r="C286"/>
-      <c r="D286" s="3"/>
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C287"/>
+      <c r="B287"/>
+      <c r="D287" s="4"/>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C288"/>
+      <c r="D288" s="4"/>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B289"/>
       <c r="C289"/>
+      <c r="D289" s="4"/>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C290"/>
@@ -1724,48 +1581,47 @@
       <c r="B291"/>
       <c r="C291"/>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C292"/>
-    </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B293"/>
       <c r="C293"/>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B294"/>
       <c r="C294"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B295"/>
       <c r="C295"/>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B296"/>
       <c r="C296"/>
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B297"/>
       <c r="C297"/>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C298"/>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B299"/>
-      <c r="D299" s="4"/>
+      <c r="C299"/>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B300"/>
       <c r="C300"/>
-      <c r="D300" s="4"/>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C301"/>
-      <c r="D301" s="4"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C302"/>
+      <c r="D302" s="3"/>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B303"/>
       <c r="C303"/>
+      <c r="D303" s="3"/>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C304"/>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C305"/>
@@ -1783,9 +1639,12 @@
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C309"/>
+      <c r="D309" s="3"/>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B310"/>
       <c r="C310"/>
+      <c r="D310" s="3"/>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C311"/>
@@ -1798,23 +1657,23 @@
       <c r="C313"/>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B314"/>
       <c r="C314"/>
-      <c r="D314" s="3"/>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B315"/>
       <c r="C315"/>
-      <c r="D315" s="3"/>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C316"/>
+      <c r="B316"/>
+      <c r="D316" s="4"/>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C317"/>
+      <c r="D317" s="4"/>
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B318"/>
       <c r="C318"/>
+      <c r="D318" s="4"/>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C319"/>
@@ -1823,50 +1682,47 @@
       <c r="B320"/>
       <c r="C320"/>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C321"/>
-      <c r="D321" s="3"/>
-    </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B322"/>
       <c r="C322"/>
-      <c r="D322" s="3"/>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B323"/>
       <c r="C323"/>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B324"/>
       <c r="C324"/>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B325"/>
       <c r="C325"/>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B326"/>
       <c r="C326"/>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C327"/>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B328"/>
-      <c r="D328" s="4"/>
+      <c r="C328"/>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B329"/>
       <c r="C329"/>
-      <c r="D329" s="4"/>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C330"/>
-      <c r="D330" s="4"/>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C331"/>
+      <c r="D331" s="3"/>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B332"/>
       <c r="C332"/>
+      <c r="D332" s="3"/>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C333"/>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C334"/>
@@ -1884,9 +1740,12 @@
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C338"/>
+      <c r="D338" s="3"/>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B339"/>
       <c r="C339"/>
+      <c r="D339" s="3"/>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C340"/>
@@ -1899,23 +1758,23 @@
       <c r="C342"/>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B343"/>
       <c r="C343"/>
-      <c r="D343" s="3"/>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B344"/>
       <c r="C344"/>
-      <c r="D344" s="3"/>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C345"/>
+      <c r="B345"/>
+      <c r="D345" s="4"/>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C346"/>
+      <c r="D346" s="4"/>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B347"/>
       <c r="C347"/>
+      <c r="D347" s="4"/>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C348"/>
@@ -1924,50 +1783,47 @@
       <c r="B349"/>
       <c r="C349"/>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C350"/>
-      <c r="D350" s="3"/>
-    </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B351"/>
       <c r="C351"/>
-      <c r="D351" s="3"/>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B352"/>
       <c r="C352"/>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B353"/>
       <c r="C353"/>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B354"/>
       <c r="C354"/>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B355"/>
       <c r="C355"/>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C356"/>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B357"/>
-      <c r="D357" s="4"/>
+      <c r="C357"/>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B358"/>
       <c r="C358"/>
-      <c r="D358" s="4"/>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C359"/>
-      <c r="D359" s="4"/>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C360"/>
+      <c r="D360" s="3"/>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B361"/>
       <c r="C361"/>
+      <c r="D361" s="3"/>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C362"/>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C363"/>
@@ -1985,9 +1841,12 @@
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C367"/>
+      <c r="D367" s="3"/>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B368"/>
       <c r="C368"/>
+      <c r="D368" s="3"/>
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C369"/>
@@ -2000,23 +1859,23 @@
       <c r="C371"/>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B372"/>
       <c r="C372"/>
-      <c r="D372" s="3"/>
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B373"/>
       <c r="C373"/>
-      <c r="D373" s="3"/>
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C374"/>
+      <c r="B374"/>
+      <c r="D374" s="4"/>
     </row>
     <row r="375" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C375"/>
+      <c r="D375" s="4"/>
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B376"/>
       <c r="C376"/>
+      <c r="D376" s="4"/>
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C377"/>
@@ -2026,52 +1885,49 @@
       <c r="C378"/>
     </row>
     <row r="379" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C379"/>
-      <c r="D379" s="3"/>
+      <c r="D379"/>
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B380"/>
       <c r="C380"/>
-      <c r="D380" s="3"/>
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B381"/>
       <c r="C381"/>
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B382"/>
       <c r="C382"/>
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B383"/>
       <c r="C383"/>
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B384"/>
       <c r="C384"/>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C385"/>
     </row>
     <row r="386" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B386"/>
-      <c r="D386" s="4"/>
+      <c r="C386"/>
     </row>
     <row r="387" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B387"/>
       <c r="C387"/>
-      <c r="D387" s="4"/>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C388"/>
-      <c r="D388" s="4"/>
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C389"/>
+      <c r="D389" s="3"/>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B390"/>
       <c r="C390"/>
+      <c r="D390" s="3"/>
     </row>
     <row r="391" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D391"/>
+      <c r="C391"/>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C392"/>
@@ -2089,9 +1945,12 @@
     </row>
     <row r="396" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C396"/>
+      <c r="D396" s="3"/>
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B397"/>
       <c r="C397"/>
+      <c r="D397" s="3"/>
     </row>
     <row r="398" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C398"/>
@@ -2104,15 +1963,14 @@
       <c r="C400"/>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B401"/>
       <c r="C401"/>
-      <c r="D401" s="3"/>
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B402"/>
       <c r="C402"/>
-      <c r="D402" s="3"/>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B403"/>
       <c r="C403"/>
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.2">
@@ -2120,66 +1978,64 @@
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B405"/>
-      <c r="C405"/>
+      <c r="D405" s="4"/>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C406"/>
+      <c r="D406" s="4"/>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B407"/>
       <c r="C407"/>
+      <c r="D407" s="4"/>
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C408"/>
-      <c r="D408" s="3"/>
     </row>
     <row r="409" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B409"/>
       <c r="C409"/>
-      <c r="D409" s="3"/>
-    </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C410"/>
     </row>
     <row r="411" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B411"/>
       <c r="C411"/>
     </row>
     <row r="412" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B412"/>
       <c r="C412"/>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B413"/>
       <c r="C413"/>
     </row>
     <row r="414" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B414"/>
       <c r="C414"/>
     </row>
     <row r="415" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B415"/>
       <c r="C415"/>
     </row>
     <row r="416" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C416"/>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B417"/>
-      <c r="D417" s="4"/>
+      <c r="C417"/>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B418"/>
       <c r="C418"/>
-      <c r="D418" s="4"/>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C419"/>
-      <c r="D419" s="4"/>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C420"/>
+      <c r="D420" s="3"/>
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B421"/>
       <c r="C421"/>
+      <c r="D421" s="3"/>
+    </row>
+    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C422"/>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C423"/>
@@ -2197,9 +2053,12 @@
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C427"/>
+      <c r="D427" s="3"/>
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B428"/>
       <c r="C428"/>
+      <c r="D428" s="3"/>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C429"/>
@@ -2212,15 +2071,14 @@
       <c r="C431"/>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B432"/>
       <c r="C432"/>
-      <c r="D432" s="3"/>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B433"/>
       <c r="C433"/>
-      <c r="D433" s="3"/>
     </row>
     <row r="434" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B434"/>
       <c r="C434"/>
     </row>
     <row r="435" spans="2:4" x14ac:dyDescent="0.2">
@@ -2228,69 +2086,68 @@
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B436"/>
-      <c r="C436"/>
+      <c r="D436" s="4"/>
     </row>
     <row r="437" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C437"/>
+      <c r="D437" s="4"/>
     </row>
     <row r="438" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B438"/>
       <c r="C438"/>
+      <c r="D438" s="4"/>
     </row>
     <row r="439" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C439"/>
-      <c r="D439" s="3"/>
     </row>
     <row r="440" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B440"/>
       <c r="C440"/>
-      <c r="D440" s="3"/>
-    </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C441"/>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B442"/>
       <c r="C442"/>
     </row>
     <row r="443" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B443"/>
       <c r="C443"/>
     </row>
     <row r="444" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B444"/>
       <c r="C444"/>
     </row>
     <row r="445" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B445"/>
       <c r="C445"/>
     </row>
     <row r="446" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B446"/>
       <c r="C446"/>
     </row>
     <row r="447" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C447"/>
     </row>
     <row r="448" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B448"/>
-      <c r="D448" s="4"/>
+      <c r="C448"/>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B449"/>
       <c r="C449"/>
-      <c r="D449" s="4"/>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C450"/>
-      <c r="D450" s="4"/>
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C451"/>
+      <c r="D451" s="3"/>
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B452"/>
       <c r="C452"/>
+      <c r="D452" s="3"/>
+    </row>
+    <row r="453" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C453"/>
     </row>
     <row r="454" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C454"/>
+      <c r="D454" s="3"/>
     </row>
     <row r="455" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B455"/>
@@ -2305,9 +2162,12 @@
     </row>
     <row r="458" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C458"/>
+      <c r="D458" s="3"/>
     </row>
     <row r="459" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B459"/>
       <c r="C459"/>
+      <c r="D459" s="3"/>
     </row>
     <row r="460" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C460"/>
@@ -2320,96 +2180,95 @@
       <c r="C462"/>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B463"/>
       <c r="C463"/>
-      <c r="D463" s="3"/>
     </row>
     <row r="464" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B464"/>
       <c r="C464"/>
-      <c r="D464" s="3"/>
     </row>
     <row r="465" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B465"/>
       <c r="C465"/>
     </row>
     <row r="466" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C466"/>
-      <c r="D466" s="3"/>
     </row>
     <row r="467" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B467"/>
-      <c r="C467"/>
+      <c r="D467" s="4"/>
     </row>
     <row r="468" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C468"/>
+      <c r="D468" s="4"/>
     </row>
     <row r="469" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B469"/>
       <c r="C469"/>
+      <c r="D469" s="4"/>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C470"/>
-      <c r="D470" s="3"/>
     </row>
     <row r="471" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B471"/>
       <c r="C471"/>
-      <c r="D471" s="3"/>
     </row>
     <row r="472" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C472"/>
+      <c r="D472"/>
     </row>
     <row r="473" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B473"/>
       <c r="C473"/>
     </row>
     <row r="474" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B474"/>
       <c r="C474"/>
     </row>
     <row r="475" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B475"/>
       <c r="C475"/>
     </row>
     <row r="476" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B476"/>
       <c r="C476"/>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B477"/>
       <c r="C477"/>
     </row>
     <row r="478" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C478"/>
     </row>
     <row r="479" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B479"/>
-      <c r="D479" s="4"/>
+      <c r="C479"/>
     </row>
     <row r="480" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B480"/>
       <c r="C480"/>
-      <c r="D480" s="4"/>
     </row>
     <row r="481" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C481"/>
-      <c r="D481" s="4"/>
     </row>
     <row r="482" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C482"/>
+      <c r="D482" s="3"/>
     </row>
     <row r="483" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B483"/>
       <c r="C483"/>
+      <c r="D483" s="3"/>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D484"/>
+      <c r="C484"/>
     </row>
     <row r="485" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C485"/>
+      <c r="D485"/>
     </row>
     <row r="486" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B486"/>
       <c r="C486"/>
+      <c r="D486"/>
     </row>
     <row r="487" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C487"/>
+      <c r="D487" s="3"/>
     </row>
     <row r="488" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B488"/>
@@ -2417,9 +2276,12 @@
     </row>
     <row r="489" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C489"/>
+      <c r="D489" s="3"/>
     </row>
     <row r="490" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B490"/>
       <c r="C490"/>
+      <c r="D490" s="3"/>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C491"/>
@@ -2432,98 +2294,95 @@
       <c r="C493"/>
     </row>
     <row r="494" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B494"/>
       <c r="C494"/>
-      <c r="D494" s="3"/>
     </row>
     <row r="495" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B495"/>
       <c r="C495"/>
-      <c r="D495" s="3"/>
     </row>
     <row r="496" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B496"/>
       <c r="C496"/>
     </row>
     <row r="497" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C497"/>
-      <c r="D497"/>
     </row>
     <row r="498" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B498"/>
-      <c r="C498"/>
-      <c r="D498"/>
+      <c r="D498" s="4"/>
     </row>
     <row r="499" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C499"/>
-      <c r="D499" s="3"/>
+      <c r="D499" s="4"/>
     </row>
     <row r="500" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B500"/>
       <c r="C500"/>
+      <c r="D500" s="4"/>
     </row>
     <row r="501" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C501"/>
-      <c r="D501" s="3"/>
     </row>
     <row r="502" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B502"/>
       <c r="C502"/>
-      <c r="D502" s="3"/>
     </row>
     <row r="503" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C503"/>
+      <c r="D503"/>
     </row>
     <row r="504" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B504"/>
       <c r="C504"/>
     </row>
     <row r="505" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B505"/>
       <c r="C505"/>
     </row>
     <row r="506" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B506"/>
       <c r="C506"/>
     </row>
     <row r="507" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B507"/>
       <c r="C507"/>
     </row>
     <row r="508" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B508"/>
       <c r="C508"/>
     </row>
     <row r="509" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C509"/>
     </row>
     <row r="510" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B510"/>
-      <c r="D510" s="4"/>
+      <c r="C510"/>
     </row>
     <row r="511" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B511"/>
       <c r="C511"/>
-      <c r="D511" s="4"/>
     </row>
     <row r="512" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C512"/>
-      <c r="D512" s="4"/>
     </row>
     <row r="513" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C513"/>
+      <c r="D513" s="3"/>
     </row>
     <row r="514" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B514"/>
       <c r="C514"/>
+      <c r="D514" s="3"/>
     </row>
     <row r="515" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D515"/>
+      <c r="C515"/>
     </row>
     <row r="516" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C516"/>
+      <c r="D516"/>
     </row>
     <row r="517" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B517"/>
       <c r="C517"/>
+      <c r="D517"/>
     </row>
     <row r="518" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C518"/>
+      <c r="D518"/>
     </row>
     <row r="519" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B519"/>
@@ -2531,9 +2390,12 @@
     </row>
     <row r="520" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C520"/>
+      <c r="D520" s="3"/>
     </row>
     <row r="521" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B521"/>
       <c r="C521"/>
+      <c r="D521" s="3"/>
     </row>
     <row r="522" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C522"/>
@@ -2546,95 +2408,92 @@
       <c r="C524"/>
     </row>
     <row r="525" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B525"/>
       <c r="C525"/>
-      <c r="D525" s="3"/>
     </row>
     <row r="526" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B526"/>
       <c r="C526"/>
-      <c r="D526" s="3"/>
     </row>
     <row r="527" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B527"/>
       <c r="C527"/>
     </row>
     <row r="528" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C528"/>
-      <c r="D528"/>
     </row>
     <row r="529" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B529"/>
-      <c r="C529"/>
-      <c r="D529"/>
+      <c r="D529" s="4"/>
     </row>
     <row r="530" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C530"/>
-      <c r="D530"/>
+      <c r="D530" s="4"/>
     </row>
     <row r="531" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B531"/>
       <c r="C531"/>
+      <c r="D531" s="4"/>
     </row>
     <row r="532" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C532"/>
-      <c r="D532" s="3"/>
     </row>
     <row r="533" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B533"/>
       <c r="C533"/>
-      <c r="D533" s="3"/>
-    </row>
-    <row r="534" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C534"/>
     </row>
     <row r="535" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B535"/>
       <c r="C535"/>
     </row>
     <row r="536" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B536"/>
       <c r="C536"/>
     </row>
     <row r="537" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B537"/>
       <c r="C537"/>
     </row>
     <row r="538" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B538"/>
       <c r="C538"/>
     </row>
     <row r="539" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B539"/>
       <c r="C539"/>
     </row>
     <row r="540" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C540"/>
     </row>
     <row r="541" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B541"/>
-      <c r="D541" s="4"/>
+      <c r="C541"/>
     </row>
     <row r="542" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B542"/>
       <c r="C542"/>
-      <c r="D542" s="4"/>
     </row>
     <row r="543" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C543"/>
-      <c r="D543" s="4"/>
     </row>
     <row r="544" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C544"/>
+      <c r="D544" s="3"/>
     </row>
     <row r="545" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B545"/>
       <c r="C545"/>
+      <c r="D545" s="3"/>
+    </row>
+    <row r="546" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C546"/>
     </row>
     <row r="547" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C547"/>
+      <c r="D547"/>
     </row>
     <row r="548" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B548"/>
       <c r="C548"/>
+      <c r="D548"/>
     </row>
     <row r="549" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C549"/>
+      <c r="D549"/>
     </row>
     <row r="550" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B550"/>
@@ -2642,9 +2501,12 @@
     </row>
     <row r="551" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C551"/>
+      <c r="D551" s="3"/>
     </row>
     <row r="552" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B552"/>
       <c r="C552"/>
+      <c r="D552" s="3"/>
     </row>
     <row r="553" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C553"/>
@@ -2657,85 +2519,79 @@
       <c r="C555"/>
     </row>
     <row r="556" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B556"/>
       <c r="C556"/>
-      <c r="D556" s="3"/>
     </row>
     <row r="557" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B557"/>
       <c r="C557"/>
-      <c r="D557" s="3"/>
     </row>
     <row r="558" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B558"/>
       <c r="C558"/>
     </row>
     <row r="559" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C559"/>
-      <c r="D559"/>
     </row>
     <row r="560" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B560"/>
-      <c r="C560"/>
-      <c r="D560"/>
+      <c r="D560" s="4"/>
     </row>
     <row r="561" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C561"/>
-      <c r="D561"/>
+      <c r="D561" s="4"/>
     </row>
     <row r="562" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B562"/>
       <c r="C562"/>
+      <c r="D562" s="4"/>
     </row>
     <row r="563" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C563"/>
-      <c r="D563" s="3"/>
     </row>
     <row r="564" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B564"/>
       <c r="C564"/>
-      <c r="D564" s="3"/>
-    </row>
-    <row r="565" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C565"/>
     </row>
     <row r="566" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B566"/>
       <c r="C566"/>
     </row>
     <row r="567" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B567"/>
       <c r="C567"/>
     </row>
     <row r="568" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B568"/>
       <c r="C568"/>
     </row>
     <row r="569" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B569"/>
       <c r="C569"/>
     </row>
     <row r="570" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B570"/>
       <c r="C570"/>
     </row>
     <row r="571" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C571"/>
     </row>
     <row r="572" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B572"/>
-      <c r="D572" s="4"/>
+      <c r="C572"/>
     </row>
     <row r="573" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B573"/>
       <c r="C573"/>
-      <c r="D573" s="4"/>
     </row>
     <row r="574" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C574"/>
-      <c r="D574" s="4"/>
     </row>
     <row r="575" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C575"/>
+      <c r="D575" s="3"/>
     </row>
     <row r="576" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B576"/>
       <c r="C576"/>
+      <c r="D576" s="3"/>
+    </row>
+    <row r="577" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C577"/>
     </row>
     <row r="578" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C578"/>
@@ -2753,9 +2609,12 @@
     </row>
     <row r="582" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C582"/>
+      <c r="D582" s="3"/>
     </row>
     <row r="583" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B583"/>
       <c r="C583"/>
+      <c r="D583" s="3"/>
     </row>
     <row r="584" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C584"/>
@@ -2768,15 +2627,14 @@
       <c r="C586"/>
     </row>
     <row r="587" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B587"/>
       <c r="C587"/>
-      <c r="D587" s="3"/>
     </row>
     <row r="588" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B588"/>
       <c r="C588"/>
-      <c r="D588" s="3"/>
     </row>
     <row r="589" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B589"/>
       <c r="C589"/>
     </row>
     <row r="590" spans="2:4" x14ac:dyDescent="0.2">
@@ -2784,69 +2642,67 @@
     </row>
     <row r="591" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B591"/>
-      <c r="C591"/>
+      <c r="D591" s="4"/>
     </row>
     <row r="592" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C592"/>
+      <c r="D592" s="4"/>
     </row>
     <row r="593" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B593"/>
       <c r="C593"/>
+      <c r="D593" s="4"/>
     </row>
     <row r="594" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C594"/>
-      <c r="D594" s="3"/>
     </row>
     <row r="595" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B595"/>
       <c r="C595"/>
-      <c r="D595" s="3"/>
     </row>
     <row r="596" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C596"/>
+      <c r="D596"/>
     </row>
     <row r="597" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B597"/>
       <c r="C597"/>
     </row>
     <row r="598" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B598"/>
       <c r="C598"/>
     </row>
     <row r="599" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B599"/>
       <c r="C599"/>
     </row>
     <row r="600" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B600"/>
       <c r="C600"/>
     </row>
     <row r="601" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B601"/>
       <c r="C601"/>
     </row>
     <row r="602" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C602"/>
     </row>
     <row r="603" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B603"/>
-      <c r="D603" s="4"/>
+      <c r="C603"/>
     </row>
     <row r="604" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B604"/>
       <c r="C604"/>
-      <c r="D604" s="4"/>
     </row>
     <row r="605" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C605"/>
-      <c r="D605" s="4"/>
     </row>
     <row r="606" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C606"/>
+      <c r="D606" s="3"/>
     </row>
     <row r="607" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B607"/>
       <c r="C607"/>
+      <c r="D607" s="3"/>
     </row>
     <row r="608" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D608"/>
+      <c r="C608"/>
     </row>
     <row r="609" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C609"/>
@@ -2864,9 +2720,12 @@
     </row>
     <row r="613" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C613"/>
+      <c r="D613" s="3"/>
     </row>
     <row r="614" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B614"/>
       <c r="C614"/>
+      <c r="D614" s="3"/>
     </row>
     <row r="615" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C615"/>
@@ -2879,39 +2738,35 @@
       <c r="C617"/>
     </row>
     <row r="618" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B618"/>
       <c r="C618"/>
-      <c r="D618" s="3"/>
     </row>
     <row r="619" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B619"/>
       <c r="C619"/>
-      <c r="D619" s="3"/>
     </row>
     <row r="620" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B620"/>
       <c r="C620"/>
     </row>
     <row r="621" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C621"/>
     </row>
     <row r="622" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B622"/>
       <c r="C622"/>
+      <c r="D622" s="4"/>
     </row>
     <row r="623" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C623"/>
     </row>
     <row r="624" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B624"/>
       <c r="C624"/>
     </row>
     <row r="625" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C625"/>
-      <c r="D625" s="3"/>
     </row>
     <row r="626" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B626"/>
       <c r="C626"/>
-      <c r="D626" s="3"/>
     </row>
     <row r="627" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C627"/>
@@ -2924,7 +2779,6 @@
       <c r="C629"/>
     </row>
     <row r="630" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B630"/>
       <c r="C630"/>
     </row>
     <row r="631" spans="2:4" x14ac:dyDescent="0.2">
@@ -2939,10 +2793,12 @@
     </row>
     <row r="634" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C634"/>
-      <c r="D634" s="4"/>
+      <c r="D634" s="3"/>
     </row>
     <row r="635" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B635"/>
       <c r="C635"/>
+      <c r="D635" s="3"/>
     </row>
     <row r="636" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C636"/>
@@ -2963,9 +2819,12 @@
     </row>
     <row r="641" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C641"/>
+      <c r="D641" s="3"/>
     </row>
     <row r="642" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B642"/>
       <c r="C642"/>
+      <c r="D642" s="3"/>
     </row>
     <row r="643" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C643"/>
@@ -2978,86 +2837,38 @@
       <c r="C645"/>
     </row>
     <row r="646" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B646"/>
       <c r="C646"/>
-      <c r="D646" s="3"/>
     </row>
     <row r="647" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B647"/>
       <c r="C647"/>
-      <c r="D647" s="3"/>
     </row>
     <row r="648" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B648"/>
       <c r="C648"/>
     </row>
     <row r="649" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C649"/>
     </row>
     <row r="650" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B650"/>
       <c r="C650"/>
+      <c r="D650" s="4"/>
     </row>
     <row r="651" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B651"/>
       <c r="C651"/>
+      <c r="D651" s="4"/>
     </row>
     <row r="652" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B652"/>
       <c r="C652"/>
+      <c r="D652" s="4"/>
     </row>
     <row r="653" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C653"/>
-      <c r="D653" s="3"/>
-    </row>
-    <row r="654" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B654"/>
-      <c r="C654"/>
-      <c r="D654" s="3"/>
-    </row>
-    <row r="655" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C655"/>
-    </row>
-    <row r="656" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B656"/>
-      <c r="C656"/>
-    </row>
-    <row r="657" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C657"/>
-    </row>
-    <row r="658" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B658"/>
-      <c r="C658"/>
-    </row>
-    <row r="659" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C659"/>
-    </row>
-    <row r="660" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B660"/>
-      <c r="C660"/>
-    </row>
-    <row r="661" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C661"/>
-    </row>
-    <row r="662" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C662"/>
-      <c r="D662" s="4"/>
-    </row>
-    <row r="663" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B663"/>
-      <c r="C663"/>
-      <c r="D663" s="4"/>
-    </row>
-    <row r="664" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C664"/>
-      <c r="D664" s="4"/>
-    </row>
-    <row r="665" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C665"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://www.couchbase.com/contact/" xr:uid="{55363DF2-0F20-604E-968A-356C6A69D319}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3066,7 +2877,7 @@
   <dimension ref="A1:E679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D22"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3079,281 +2890,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="B9"/>
       <c r="E9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B11"/>
       <c r="E11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B13"/>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="B15"/>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>35</v>
-      </c>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
-      </c>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>39</v>
-      </c>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>40</v>
-      </c>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C23"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C27"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="C30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C32"/>
       <c r="D32" s="3"/>
     </row>
@@ -5665,9 +5299,6 @@
       <c r="C679"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://www.couchbase.com/contact/" xr:uid="{73FB6A66-5967-4B4C-8CCC-1020ACD2B28D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>